--- a/workingfolder/python/tables/sce_joint_est_moments.xlsx
+++ b/workingfolder/python/tables/sce_joint_est_moments.xlsx
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.250785827636719</v>
+        <v>-3.973643103449831E-08</v>
       </c>
       <c r="C2">
         <v>3.959151268005371</v>
@@ -532,60 +532,492 @@
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2.578947368421053</v>
+      </c>
+      <c r="D3">
+        <v>2.321052631578948</v>
+      </c>
+      <c r="E3">
+        <v>-0.03515381148675916</v>
+      </c>
+      <c r="F3">
+        <v>0.6375222362110279</v>
+      </c>
+      <c r="G3">
+        <v>0.3949431464863624</v>
+      </c>
+      <c r="H3">
+        <v>0.3886891279823181</v>
+      </c>
+      <c r="I3">
+        <v>0.1047529638783499</v>
+      </c>
+      <c r="J3">
+        <v>0.08627647523793786</v>
+      </c>
+      <c r="K3">
+        <v>1.360294011187797</v>
+      </c>
+      <c r="L3">
+        <v>0.0007933425278022433</v>
+      </c>
+      <c r="M3">
+        <v>0.0005139105411266024</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.252525252525252</v>
+      </c>
+      <c r="D4">
+        <v>0.247474747474747</v>
+      </c>
+      <c r="E4">
+        <v>-0.006323887507055811</v>
+      </c>
+      <c r="F4">
+        <v>0.01301996818610838</v>
+      </c>
+      <c r="G4">
+        <v>0.008470320293531447</v>
+      </c>
+      <c r="H4">
+        <v>0.01756716503656709</v>
+      </c>
+      <c r="I4">
+        <v>0.0001789228060869995</v>
+      </c>
+      <c r="J4">
+        <v>0.000164526812178966</v>
+      </c>
+      <c r="K4">
+        <v>0.04302632986889662</v>
+      </c>
+      <c r="L4">
+        <v>1.709752113614707E-06</v>
+      </c>
+      <c r="M4">
+        <v>1.247776857399013E-06</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3.120526315789474</v>
+      </c>
+      <c r="D5">
+        <v>2.808473684210527</v>
+      </c>
+      <c r="E5">
+        <v>-0.02608882149306242</v>
+      </c>
+      <c r="F5">
+        <v>0.4172501193485463</v>
+      </c>
+      <c r="G5">
+        <v>0.1265177469816006</v>
+      </c>
+      <c r="H5">
+        <v>0.3498577899066002</v>
+      </c>
+      <c r="I5">
+        <v>0.09382889719047643</v>
+      </c>
+      <c r="J5">
+        <v>0.05847461944715957</v>
+      </c>
+      <c r="K5">
+        <v>1.170398281091975</v>
+      </c>
+      <c r="L5">
+        <v>0.0006330841605619485</v>
+      </c>
+      <c r="M5">
+        <v>0.0002861148571598649</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2.578947368421053</v>
+      </c>
+      <c r="D6">
+        <v>2.321052631578948</v>
+      </c>
+      <c r="E6">
+        <v>0.005770085637884103</v>
+      </c>
+      <c r="F6">
+        <v>0.5122349381704008</v>
+      </c>
+      <c r="G6">
+        <v>0.01618863295228209</v>
+      </c>
+      <c r="H6">
+        <v>9.987853222029977E-29</v>
+      </c>
+      <c r="I6">
+        <v>4.781103680424108E-56</v>
+      </c>
+      <c r="J6">
+        <v>2.017022683526623E-56</v>
+      </c>
+      <c r="K6">
+        <v>0.4900000000000072</v>
+      </c>
+      <c r="L6">
+        <v>1.597443333072549E-29</v>
+      </c>
+      <c r="M6">
+        <v>1.600871323057683E-29</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2.578947368421053</v>
+      </c>
+      <c r="D7">
+        <v>2.321052631578948</v>
+      </c>
+      <c r="E7">
+        <v>0.005770085637884103</v>
+      </c>
+      <c r="F7">
+        <v>0.5122349381704008</v>
+      </c>
+      <c r="G7">
+        <v>0.01618863295228209</v>
+      </c>
+      <c r="H7">
+        <v>9.987853222029977E-29</v>
+      </c>
+      <c r="I7">
+        <v>4.781103680424108E-56</v>
+      </c>
+      <c r="J7">
+        <v>2.017022683526623E-56</v>
+      </c>
+      <c r="K7">
+        <v>0.4900000000000072</v>
+      </c>
+      <c r="L7">
+        <v>1.597443333072549E-29</v>
+      </c>
+      <c r="M7">
+        <v>1.600871323057683E-29</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>3.120526315789474</v>
+      </c>
+      <c r="D8">
+        <v>2.808473684210527</v>
+      </c>
+      <c r="E8">
+        <v>0.1135701804545673</v>
+      </c>
+      <c r="F8">
+        <v>0.8984155410771357</v>
+      </c>
+      <c r="G8">
+        <v>0.5818480429174054</v>
+      </c>
+      <c r="H8">
+        <v>0.210107003145396</v>
+      </c>
+      <c r="I8">
+        <v>0.0002076668520766055</v>
+      </c>
+      <c r="J8">
+        <v>0.000105206809290575</v>
+      </c>
+      <c r="K8">
+        <v>1.507615341825497</v>
+      </c>
+      <c r="L8">
+        <v>5.048709793414476E-29</v>
+      </c>
+      <c r="M8">
+        <v>5.05954393460206E-29</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2.578947368421053</v>
+      </c>
+      <c r="D9">
+        <v>2.321052631578948</v>
+      </c>
+      <c r="E9">
+        <v>0.005646565565627371</v>
+      </c>
+      <c r="F9">
+        <v>1.574635842517005</v>
+      </c>
+      <c r="G9">
+        <v>-0.1394394934465455</v>
+      </c>
+      <c r="H9">
+        <v>1.626654514699598</v>
+      </c>
+      <c r="I9">
+        <v>4.73008038487975</v>
+      </c>
+      <c r="J9">
+        <v>-0.342206364509281</v>
+      </c>
+      <c r="K9">
+        <v>0.4900000000000072</v>
+      </c>
+      <c r="L9">
+        <v>1.597443333072549E-29</v>
+      </c>
+      <c r="M9">
+        <v>1.600871323057683E-29</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2.578947368421053</v>
+      </c>
+      <c r="D10">
+        <v>2.321052631578948</v>
+      </c>
+      <c r="E10">
+        <v>0.005648640377334755</v>
+      </c>
+      <c r="F10">
+        <v>1.574872049104573</v>
+      </c>
+      <c r="G10">
+        <v>-0.1394606933301283</v>
+      </c>
+      <c r="H10">
+        <v>0.372711814749233</v>
+      </c>
+      <c r="I10">
+        <v>0.2483271448891567</v>
+      </c>
+      <c r="J10">
+        <v>-0.01796568399411001</v>
+      </c>
+      <c r="K10">
+        <v>0.4900000000000072</v>
+      </c>
+      <c r="L10">
+        <v>1.597443333072549E-29</v>
+      </c>
+      <c r="M10">
+        <v>1.600871323057683E-29</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2.578947368421053</v>
+      </c>
+      <c r="D11">
+        <v>2.321052631578948</v>
+      </c>
+      <c r="E11">
+        <v>0.004364864289895591</v>
+      </c>
+      <c r="F11">
+        <v>1.432229617436627</v>
+      </c>
+      <c r="G11">
+        <v>-0.1265367874246578</v>
+      </c>
+      <c r="H11">
+        <v>0.3367230746719863</v>
+      </c>
+      <c r="I11">
+        <v>0.2026859441625896</v>
+      </c>
+      <c r="J11">
+        <v>-0.01466368738906204</v>
+      </c>
+      <c r="K11">
+        <v>0.4900000000000072</v>
+      </c>
+      <c r="L11">
+        <v>1.597443333072549E-29</v>
+      </c>
+      <c r="M11">
+        <v>1.600871323057683E-29</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>2.292631578947369</v>
+      </c>
+      <c r="D12">
+        <v>2.063368421052632</v>
+      </c>
+      <c r="E12">
+        <v>0.01289490163026139</v>
+      </c>
+      <c r="F12">
+        <v>2.195066048322307</v>
+      </c>
+      <c r="G12">
+        <v>-1.250146626724897</v>
+      </c>
+      <c r="H12">
+        <v>1.433553253389728E-07</v>
+      </c>
+      <c r="I12">
+        <v>7.220022858142143E-17</v>
+      </c>
+      <c r="J12">
+        <v>4.48647694133143E-17</v>
+      </c>
+      <c r="K12">
+        <v>0.4359236885998423</v>
+      </c>
+      <c r="L12">
+        <v>2.415886522239349E-30</v>
+      </c>
+      <c r="M12">
+        <v>2.421070828081064E-30</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2.321243523316065</v>
+      </c>
+      <c r="D13">
+        <v>2.15875647668394</v>
+      </c>
+      <c r="E13">
+        <v>0.02247094754209927</v>
+      </c>
+      <c r="F13">
+        <v>0.6574192142455283</v>
+      </c>
+      <c r="G13">
+        <v>-0.08282831512109545</v>
+      </c>
+      <c r="H13">
+        <v>0.04939396741652854</v>
+      </c>
+      <c r="I13">
+        <v>9.027236561935378E-06</v>
+      </c>
+      <c r="J13">
+        <v>1.98184864247584E-06</v>
+      </c>
+      <c r="K13">
+        <v>0.3317145783344422</v>
+      </c>
+      <c r="L13">
+        <v>3.993608332681372E-30</v>
+      </c>
+      <c r="M13">
+        <v>4.002178307644208E-30</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.07038976148923795</v>
+      </c>
+      <c r="D14">
+        <v>0.06405468295520654</v>
+      </c>
+      <c r="E14">
+        <v>0.03179736183752695</v>
+      </c>
+      <c r="F14">
+        <v>0.01448287415193935</v>
+      </c>
+      <c r="G14">
+        <v>0.006944976028680937</v>
+      </c>
+      <c r="H14">
+        <v>0.01138370561386528</v>
+      </c>
+      <c r="I14">
+        <v>5.952666499984613E-07</v>
+      </c>
+      <c r="J14">
+        <v>2.491922779909072E-07</v>
+      </c>
+      <c r="K14">
+        <v>0.03432440880166791</v>
+      </c>
+      <c r="L14">
+        <v>3.510007323645737E-32</v>
+      </c>
+      <c r="M14">
+        <v>3.517539528202917E-32</v>
       </c>
     </row>
   </sheetData>
